--- a/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-medicationdispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4643" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4643" uniqueCount="765">
   <si>
     <t>Property</t>
   </si>
@@ -280,7 +280,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -673,6 +673,10 @@
   </si>
   <si>
     <t>MedicationDispense.medication[x].id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing 要素間参照用の一意のID</t>
@@ -4771,13 +4775,13 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4828,7 +4832,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4846,7 +4850,7 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
@@ -4860,7 +4864,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4886,10 +4890,10 @@
         <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>147</v>
@@ -4933,7 +4937,7 @@
         <v>134</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>77</v>
@@ -4942,7 +4946,7 @@
         <v>135</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4960,7 +4964,7 @@
         <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -4977,7 +4981,7 @@
         <v>193</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>77</v>
@@ -5002,13 +5006,13 @@
         <v>186</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -5038,7 +5042,7 @@
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -5111,13 +5115,13 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -5168,7 +5172,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -5186,7 +5190,7 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -5200,7 +5204,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -5226,10 +5230,10 @@
         <v>131</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>147</v>
@@ -5273,7 +5277,7 @@
         <v>134</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>77</v>
@@ -5282,7 +5286,7 @@
         <v>135</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -5300,7 +5304,7 @@
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -5314,7 +5318,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5337,19 +5341,19 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -5398,7 +5402,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -5416,7 +5420,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -5425,12 +5429,12 @@
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5453,13 +5457,13 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5510,7 +5514,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -5528,7 +5532,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -5542,7 +5546,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5568,10 +5572,10 @@
         <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>147</v>
@@ -5615,7 +5619,7 @@
         <v>134</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
@@ -5624,7 +5628,7 @@
         <v>135</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -5642,7 +5646,7 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -5656,7 +5660,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5682,16 +5686,16 @@
         <v>100</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -5740,7 +5744,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5758,7 +5762,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -5767,12 +5771,12 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5795,16 +5799,16 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5854,7 +5858,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5872,7 +5876,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5881,12 +5885,12 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5912,14 +5916,14 @@
         <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5968,7 +5972,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5986,7 +5990,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5995,12 +5999,12 @@
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -6023,17 +6027,17 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -6082,7 +6086,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -6100,7 +6104,7 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -6109,12 +6113,12 @@
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -6137,19 +6141,19 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -6198,7 +6202,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -6216,7 +6220,7 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -6225,12 +6229,12 @@
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -6253,19 +6257,19 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -6314,7 +6318,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -6332,7 +6336,7 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -6341,7 +6345,7 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32">
@@ -6349,7 +6353,7 @@
         <v>193</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>77</v>
@@ -6371,16 +6375,16 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6462,7 +6466,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6485,16 +6489,16 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6544,7 +6548,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -6559,24 +6563,24 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6599,16 +6603,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6658,7 +6662,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6673,10 +6677,10 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -6690,7 +6694,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6713,16 +6717,16 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6772,7 +6776,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6790,10 +6794,10 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -6804,7 +6808,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6827,13 +6831,13 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6884,7 +6888,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6899,10 +6903,10 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6916,7 +6920,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6939,13 +6943,13 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6996,7 +7000,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -7014,7 +7018,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -7028,7 +7032,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -7054,10 +7058,10 @@
         <v>131</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>147</v>
@@ -7110,7 +7114,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -7128,7 +7132,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -7142,11 +7146,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -7168,10 +7172,10 @@
         <v>131</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>147</v>
@@ -7226,7 +7230,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -7258,7 +7262,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7284,14 +7288,14 @@
         <v>186</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -7319,10 +7323,10 @@
         <v>180</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -7340,7 +7344,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -7358,7 +7362,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -7372,7 +7376,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7395,13 +7399,13 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -7452,7 +7456,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>86</v>
@@ -7467,10 +7471,10 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -7484,7 +7488,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7507,16 +7511,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7566,7 +7570,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7584,7 +7588,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -7598,7 +7602,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7621,16 +7625,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7680,7 +7684,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7695,24 +7699,24 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7738,13 +7742,13 @@
         <v>186</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7773,10 +7777,10 @@
         <v>180</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -7794,7 +7798,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7812,21 +7816,21 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7849,16 +7853,16 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7908,7 +7912,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7926,21 +7930,21 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7963,13 +7967,13 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -8020,7 +8024,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -8038,7 +8042,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -8052,7 +8056,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -8078,10 +8082,10 @@
         <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>147</v>
@@ -8125,7 +8129,7 @@
         <v>134</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>77</v>
@@ -8134,7 +8138,7 @@
         <v>135</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -8152,7 +8156,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -8166,7 +8170,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8189,19 +8193,19 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -8250,7 +8254,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -8268,7 +8272,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -8277,12 +8281,12 @@
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8308,20 +8312,20 @@
         <v>106</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q49" t="s" s="2">
         <v>77</v>
@@ -8345,10 +8349,10 @@
         <v>169</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -8366,7 +8370,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -8384,7 +8388,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -8393,12 +8397,12 @@
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8421,17 +8425,17 @@
         <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -8480,7 +8484,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8498,7 +8502,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -8507,12 +8511,12 @@
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8538,14 +8542,14 @@
         <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -8594,7 +8598,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8603,7 +8607,7 @@
         <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>98</v>
@@ -8612,7 +8616,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -8621,12 +8625,12 @@
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8652,16 +8656,16 @@
         <v>106</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -8690,7 +8694,7 @@
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -8708,7 +8712,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8726,7 +8730,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -8735,12 +8739,12 @@
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8763,16 +8767,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8822,7 +8826,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8840,7 +8844,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8849,12 +8853,12 @@
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8877,13 +8881,13 @@
         <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8934,7 +8938,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8952,21 +8956,21 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8989,13 +8993,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -9046,7 +9050,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -9061,24 +9065,24 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -9101,16 +9105,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -9160,7 +9164,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -9178,21 +9182,21 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9215,16 +9219,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -9274,7 +9278,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9292,13 +9296,13 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -9306,7 +9310,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9329,16 +9333,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9388,7 +9392,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9403,10 +9407,10 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -9415,12 +9419,12 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9443,16 +9447,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9502,7 +9506,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9520,7 +9524,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -9534,7 +9538,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9557,13 +9561,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9614,7 +9618,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9632,7 +9636,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -9646,7 +9650,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9672,10 +9676,10 @@
         <v>131</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>147</v>
@@ -9719,7 +9723,7 @@
         <v>134</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>77</v>
@@ -9728,7 +9732,7 @@
         <v>135</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9746,7 +9750,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -9760,10 +9764,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9785,13 +9789,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9842,7 +9846,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9874,10 +9878,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>77</v>
@@ -9899,13 +9903,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9956,7 +9960,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9988,10 +9992,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>77</v>
@@ -10013,13 +10017,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -10070,7 +10074,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -10102,10 +10106,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>77</v>
@@ -10127,13 +10131,13 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -10184,7 +10188,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -10216,11 +10220,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -10242,10 +10246,10 @@
         <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>147</v>
@@ -10300,7 +10304,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -10332,7 +10336,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10355,17 +10359,17 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -10414,7 +10418,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10432,7 +10436,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -10441,12 +10445,12 @@
         <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10469,17 +10473,17 @@
         <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -10528,7 +10532,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10546,7 +10550,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -10555,12 +10559,12 @@
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10586,16 +10590,16 @@
         <v>186</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -10623,10 +10627,10 @@
         <v>180</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -10644,7 +10648,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10662,7 +10666,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -10671,12 +10675,12 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10699,13 +10703,13 @@
         <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10756,7 +10760,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10774,7 +10778,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10783,12 +10787,12 @@
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10811,19 +10815,19 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10872,7 +10876,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10890,7 +10894,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10904,7 +10908,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10927,13 +10931,13 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10984,7 +10988,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -11002,7 +11006,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -11016,7 +11020,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11042,10 +11046,10 @@
         <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>147</v>
@@ -11089,7 +11093,7 @@
         <v>134</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>77</v>
@@ -11098,7 +11102,7 @@
         <v>135</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -11116,7 +11120,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -11130,11 +11134,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -11156,10 +11160,10 @@
         <v>131</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>147</v>
@@ -11214,7 +11218,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -11246,7 +11250,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11269,17 +11273,17 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -11328,7 +11332,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11346,7 +11350,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -11360,7 +11364,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11383,17 +11387,17 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -11442,7 +11446,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11454,13 +11458,13 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -11474,7 +11478,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11497,13 +11501,13 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11554,7 +11558,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11572,7 +11576,7 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
@@ -11586,7 +11590,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11612,10 +11616,10 @@
         <v>131</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>147</v>
@@ -11659,7 +11663,7 @@
         <v>134</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>77</v>
@@ -11668,7 +11672,7 @@
         <v>135</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11686,7 +11690,7 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -11700,7 +11704,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11723,13 +11727,13 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11780,7 +11784,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11798,7 +11802,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11812,7 +11816,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11835,19 +11839,19 @@
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11896,7 +11900,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11914,7 +11918,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11928,7 +11932,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11951,13 +11955,13 @@
         <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -12008,7 +12012,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -12026,7 +12030,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -12040,7 +12044,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12063,19 +12067,19 @@
         <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -12124,7 +12128,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -12142,7 +12146,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -12156,7 +12160,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12179,19 +12183,19 @@
         <v>87</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -12240,7 +12244,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -12258,7 +12262,7 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -12272,7 +12276,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12298,10 +12302,10 @@
         <v>106</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12331,10 +12335,10 @@
         <v>169</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>77</v>
@@ -12352,7 +12356,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12370,7 +12374,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -12384,7 +12388,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12407,13 +12411,13 @@
         <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12421,7 +12425,7 @@
         <v>77</v>
       </c>
       <c r="P85" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>77</v>
@@ -12466,7 +12470,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12484,7 +12488,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -12498,7 +12502,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12521,13 +12525,13 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12578,7 +12582,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12596,7 +12600,7 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -12610,7 +12614,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12633,13 +12637,13 @@
         <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12690,7 +12694,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12708,7 +12712,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -12722,7 +12726,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12745,13 +12749,13 @@
         <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12802,7 +12806,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12820,7 +12824,7 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12834,7 +12838,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12860,10 +12864,10 @@
         <v>106</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12893,10 +12897,10 @@
         <v>169</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -12914,7 +12918,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12932,7 +12936,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12946,7 +12950,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12972,13 +12976,13 @@
         <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -13008,7 +13012,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -13026,7 +13030,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -13044,7 +13048,7 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -13058,7 +13062,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13081,16 +13085,16 @@
         <v>87</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -13140,7 +13144,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -13158,7 +13162,7 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
@@ -13172,7 +13176,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13198,16 +13202,16 @@
         <v>106</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>77</v>
@@ -13235,10 +13239,10 @@
         <v>169</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>77</v>
@@ -13256,7 +13260,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13274,7 +13278,7 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -13288,7 +13292,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13311,13 +13315,13 @@
         <v>87</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13368,7 +13372,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -13386,7 +13390,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -13400,7 +13404,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13426,13 +13430,13 @@
         <v>186</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13461,10 +13465,10 @@
         <v>110</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -13482,7 +13486,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13500,7 +13504,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -13514,7 +13518,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13537,13 +13541,13 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13594,7 +13598,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -13612,7 +13616,7 @@
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -13626,7 +13630,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13652,10 +13656,10 @@
         <v>131</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>147</v>
@@ -13699,7 +13703,7 @@
         <v>134</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC96" t="s" s="2">
         <v>77</v>
@@ -13708,7 +13712,7 @@
         <v>135</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -13726,7 +13730,7 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -13740,7 +13744,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13763,19 +13767,19 @@
         <v>87</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>77</v>
@@ -13824,7 +13828,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13842,7 +13846,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13851,12 +13855,12 @@
         <v>77</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13879,13 +13883,13 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13936,7 +13940,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -13954,7 +13958,7 @@
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
@@ -13968,7 +13972,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13994,10 +13998,10 @@
         <v>131</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>147</v>
@@ -14041,7 +14045,7 @@
         <v>134</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>77</v>
@@ -14050,7 +14054,7 @@
         <v>135</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
@@ -14068,7 +14072,7 @@
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>
@@ -14082,7 +14086,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14108,16 +14112,16 @@
         <v>100</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>77</v>
@@ -14166,7 +14170,7 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>78</v>
@@ -14184,7 +14188,7 @@
         <v>77</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -14193,12 +14197,12 @@
         <v>77</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14221,16 +14225,16 @@
         <v>87</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -14280,7 +14284,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>78</v>
@@ -14298,7 +14302,7 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -14307,12 +14311,12 @@
         <v>77</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14338,14 +14342,14 @@
         <v>106</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>77</v>
@@ -14394,7 +14398,7 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>78</v>
@@ -14412,7 +14416,7 @@
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -14421,12 +14425,12 @@
         <v>77</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14449,17 +14453,17 @@
         <v>87</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>77</v>
@@ -14508,7 +14512,7 @@
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>78</v>
@@ -14526,7 +14530,7 @@
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>77</v>
@@ -14535,12 +14539,12 @@
         <v>77</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14563,19 +14567,19 @@
         <v>87</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>77</v>
@@ -14624,7 +14628,7 @@
         <v>77</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>78</v>
@@ -14642,7 +14646,7 @@
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -14651,12 +14655,12 @@
         <v>77</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14679,19 +14683,19 @@
         <v>87</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>77</v>
@@ -14740,7 +14744,7 @@
         <v>77</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>78</v>
@@ -14758,7 +14762,7 @@
         <v>77</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>77</v>
@@ -14767,12 +14771,12 @@
         <v>77</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14795,16 +14799,16 @@
         <v>87</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14833,10 +14837,10 @@
         <v>180</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>77</v>
@@ -14854,7 +14858,7 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
@@ -14872,7 +14876,7 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14881,12 +14885,12 @@
         <v>77</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14912,16 +14916,16 @@
         <v>186</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>77</v>
@@ -14949,10 +14953,10 @@
         <v>180</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>77</v>
@@ -14970,7 +14974,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -14988,7 +14992,7 @@
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14997,12 +15001,12 @@
         <v>77</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15028,16 +15032,16 @@
         <v>186</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>77</v>
@@ -15065,10 +15069,10 @@
         <v>180</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>77</v>
@@ -15086,7 +15090,7 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>78</v>
@@ -15104,7 +15108,7 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -15113,12 +15117,12 @@
         <v>77</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15144,16 +15148,16 @@
         <v>186</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>77</v>
@@ -15181,10 +15185,10 @@
         <v>180</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>77</v>
@@ -15202,7 +15206,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>78</v>
@@ -15220,7 +15224,7 @@
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -15229,12 +15233,12 @@
         <v>77</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15257,13 +15261,13 @@
         <v>87</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -15314,7 +15318,7 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
@@ -15341,12 +15345,12 @@
         <v>77</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15369,13 +15373,13 @@
         <v>77</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -15426,7 +15430,7 @@
         <v>77</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>78</v>
@@ -15444,7 +15448,7 @@
         <v>77</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>77</v>
@@ -15458,7 +15462,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15484,10 +15488,10 @@
         <v>131</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>147</v>
@@ -15531,7 +15535,7 @@
         <v>134</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC112" t="s" s="2">
         <v>77</v>
@@ -15540,7 +15544,7 @@
         <v>135</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>78</v>
@@ -15558,7 +15562,7 @@
         <v>77</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>77</v>
@@ -15572,7 +15576,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15598,14 +15602,14 @@
         <v>186</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>77</v>
@@ -15633,10 +15637,10 @@
         <v>180</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>77</v>
@@ -15654,7 +15658,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>78</v>
@@ -15681,12 +15685,12 @@
         <v>77</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15709,19 +15713,19 @@
         <v>87</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>77</v>
@@ -15770,7 +15774,7 @@
         <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>78</v>
@@ -15788,7 +15792,7 @@
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>77</v>
@@ -15797,12 +15801,12 @@
         <v>77</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15825,19 +15829,19 @@
         <v>87</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>77</v>
@@ -15886,7 +15890,7 @@
         <v>77</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>78</v>
@@ -15904,7 +15908,7 @@
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -15913,12 +15917,12 @@
         <v>77</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15941,19 +15945,19 @@
         <v>87</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>77</v>
@@ -16002,7 +16006,7 @@
         <v>77</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>78</v>
@@ -16020,7 +16024,7 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -16029,12 +16033,12 @@
         <v>77</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16057,19 +16061,19 @@
         <v>87</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>77</v>
@@ -16118,7 +16122,7 @@
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>78</v>
@@ -16136,7 +16140,7 @@
         <v>77</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -16150,7 +16154,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16173,17 +16177,17 @@
         <v>87</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>77</v>
@@ -16232,7 +16236,7 @@
         <v>77</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>78</v>
@@ -16250,7 +16254,7 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>77</v>
@@ -16264,7 +16268,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16287,13 +16291,13 @@
         <v>77</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16344,7 +16348,7 @@
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>78</v>
@@ -16362,13 +16366,13 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>77</v>
@@ -16376,7 +16380,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16399,13 +16403,13 @@
         <v>77</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -16456,7 +16460,7 @@
         <v>77</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>78</v>
@@ -16474,7 +16478,7 @@
         <v>77</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>77</v>
@@ -16488,7 +16492,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16514,10 +16518,10 @@
         <v>131</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M121" t="s" s="2">
         <v>147</v>
@@ -16570,7 +16574,7 @@
         <v>77</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>78</v>
@@ -16588,7 +16592,7 @@
         <v>77</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>77</v>
@@ -16602,11 +16606,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16628,10 +16632,10 @@
         <v>131</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>147</v>
@@ -16686,7 +16690,7 @@
         <v>77</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>78</v>
@@ -16718,7 +16722,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16741,13 +16745,13 @@
         <v>77</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16798,7 +16802,7 @@
         <v>77</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>86</v>
@@ -16816,7 +16820,7 @@
         <v>77</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>77</v>
@@ -16830,7 +16834,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16856,13 +16860,13 @@
         <v>186</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16891,10 +16895,10 @@
         <v>180</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>77</v>
@@ -16912,7 +16916,7 @@
         <v>77</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>78</v>
@@ -16930,21 +16934,21 @@
         <v>77</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16970,13 +16974,13 @@
         <v>186</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -17005,10 +17009,10 @@
         <v>180</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>77</v>
@@ -17026,7 +17030,7 @@
         <v>77</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>78</v>
@@ -17044,13 +17048,13 @@
         <v>77</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>77</v>
@@ -17058,7 +17062,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17081,16 +17085,16 @@
         <v>77</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -17140,7 +17144,7 @@
         <v>77</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>78</v>
@@ -17158,13 +17162,13 @@
         <v>77</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>77</v>
@@ -17172,11 +17176,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17195,16 +17199,16 @@
         <v>77</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -17254,7 +17258,7 @@
         <v>77</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>78</v>
@@ -17272,7 +17276,7 @@
         <v>77</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>77</v>
@@ -17286,7 +17290,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17309,16 +17313,16 @@
         <v>77</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -17368,7 +17372,7 @@
         <v>77</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>78</v>
@@ -17386,7 +17390,7 @@
         <v>77</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>77</v>
